--- a/Chantiers Laurent/Resources/Modèle.xlsx
+++ b/Chantiers Laurent/Resources/Modèle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Visual Studio 2017\Projects\Chantiers-Laurent\Chantiers Laurent\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>REQUETE : Par contact pour revue de portefeuille avec clients</t>
   </si>
   <si>
-    <t>KER EXPERT</t>
-  </si>
-  <si>
     <t>Code chantier</t>
   </si>
   <si>
@@ -74,16 +71,16 @@
     <t>VILLE</t>
   </si>
   <si>
-    <t>Maitrise Ouvrage</t>
-  </si>
-  <si>
-    <t>Entreprise Generale</t>
-  </si>
-  <si>
     <t>Bureau d'études</t>
   </si>
   <si>
-    <t>Installateur</t>
+    <t>Maitre d'ouvrage</t>
+  </si>
+  <si>
+    <t>Entreprise générale</t>
+  </si>
+  <si>
+    <t>Installateurs en EXE</t>
   </si>
 </sst>
 </file>
@@ -139,18 +136,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -271,53 +262,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -335,6 +289,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +609,7 @@
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,9 +669,7 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="24"/>
       <c r="D3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -700,426 +689,426 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8" t="s">
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="11" t="s">
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="4"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="L5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="M5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="R5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="V5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="20" t="s">
+      <c r="X5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Z5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB5" s="4"/>
+      <c r="AB5" s="3"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
